--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\E2Festa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\apiMyCycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,29 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>smoker</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>heart desease</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,83 +370,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.17910447761194029</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>0.32835820895522388</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>30</v>
+        <v>0.62686567164179108</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>160</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>50</v>
+        <v>0.40298507462686567</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>70</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -477,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>35</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -489,58 +466,58 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>25</v>
+        <v>0.17910447761194029</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>20</v>
+        <v>0.55223880597014929</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -549,15 +526,15 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>45</v>
+        <v>0.77611940298507465</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -569,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -577,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>60</v>
+        <v>0.77611940298507465</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -593,31 +570,31 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>60</v>
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>8</v>
+        <v>0.32835820895522388</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -629,35 +606,35 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2">
-        <v>30</v>
+        <v>0.47761194029850745</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>40</v>
+        <v>0.92537313432835822</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -669,46 +646,46 @@
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1</v>
+      <c r="A15" s="1">
+        <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>70</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>30</v>
+        <v>0.17910447761194029</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0</v>
+      <c r="A16" s="2">
+        <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
+        <v>0.23880597014925373</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
         <v>150</v>
       </c>
     </row>
@@ -717,10 +694,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>24</v>
+        <v>0.22388059701492538</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -733,43 +710,43 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>150</v>
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>180</v>
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.14925373134328357</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -777,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="2">
-        <v>18</v>
+        <v>0.92537313432835822</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -789,18 +766,18 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>200</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -809,26 +786,6 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>75</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
         <v>45</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E1" sqref="E1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,7 +369,7 @@
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -383,13 +383,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -403,13 +400,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -423,13 +417,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -443,13 +434,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -463,13 +451,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -483,13 +468,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -503,13 +485,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -523,13 +502,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -543,13 +519,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -563,13 +536,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -583,13 +553,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -603,13 +570,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -623,13 +587,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -643,13 +604,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -663,13 +621,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -683,13 +638,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -703,13 +655,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -723,13 +672,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -743,13 +689,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -763,13 +706,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -783,9 +723,6 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
         <v>45</v>
       </c>
     </row>
